--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\kim\Documents\GitHub\Compsci-367-Local-Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095DA1F4-5399-4FA4-8135-A9345AF61774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8908D88-4C0C-4342-8631-894E2E3A81EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="2510" windowWidth="20750" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="expanded" sheetId="1" r:id="rId1"/>
@@ -127,6 +127,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Number of Expanded</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1090,6 +1120,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Probability of Solving</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1819,6 +1874,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Number of Expanded Nodes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2545,6 +2625,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Number of Expanded Nodes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3115,6 +3220,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Number of Expanded Nodes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3844,6 +3974,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Average Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4807,6 +4962,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Average Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5533,6 +5713,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Average Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6103,6 +6308,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6832,6 +7067,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Probability of Solving</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14002,8 +14262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14464,7 +14724,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14924,8 +15184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
